--- a/FileMonitor/readme.xlsx
+++ b/FileMonitor/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Jonathan98</t>
   </si>
@@ -29,12 +29,15 @@
   <si>
     <t>this key should be put to the default .ssh folder for user</t>
   </si>
+  <si>
+    <t>PULL BEFORE PUSH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +54,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -82,10 +92,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:C12"/>
+  <dimension ref="A5:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -692,6 +703,11 @@
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
